--- a/Dự Án/BÁO GIÁ/Báo Giá Công Ty may đồng phục GLU.xlsx
+++ b/Dự Án/BÁO GIÁ/Báo Giá Công Ty may đồng phục GLU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hathienvan/Documents/JetArt/JETART/Dự Án/BÁO GIÁ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/Documents/Hành chính Jet Art/JETART/Dự Án/BÁO GIÁ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B313546-0A4D-B140-AF11-CB4A7E0DC3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B714F6-C937-CE47-B578-0C8411816668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Báo Giá Tháng 11" sheetId="3" r:id="rId1"/>
@@ -193,8 +193,8 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="_([$VND]\ * #,##0_);_([$VND]\ * \(#,##0\);_([$VND]\ * &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="174" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="168" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -651,58 +651,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="3" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="3" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="5" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -711,6 +702,15 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="5" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459D3E6D-14C8-F747-A5B7-B0904D5DF7F2}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1238,15 +1238,15 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -1270,13 +1270,13 @@
       <c r="D19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1290,16 +1290,16 @@
       <c r="C20" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="44">
         <v>2</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="60">
         <v>12000000</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="57" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1313,12 +1313,12 @@
       <c r="C21" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="44">
         <v>1</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
@@ -1330,12 +1330,12 @@
       <c r="C22" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="44">
         <v>1</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="58"/>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
@@ -1347,12 +1347,12 @@
       <c r="C23" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="44">
         <v>1</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="58"/>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
@@ -1364,12 +1364,12 @@
       <c r="C24" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="44">
         <v>1</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="58"/>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
@@ -1381,12 +1381,12 @@
       <c r="C25" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="44">
         <v>1</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
@@ -1398,12 +1398,12 @@
       <c r="C26" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="44">
         <v>1</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
@@ -1415,12 +1415,12 @@
       <c r="C27" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="44">
         <v>1</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1432,25 +1432,25 @@
       <c r="C28" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="44">
         <v>1</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="59"/>
     </row>
     <row r="29" spans="1:7" s="20" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="22">
         <f>SUM(E20:E28)</f>
         <v>12000000</v>
       </c>
-      <c r="F29" s="49"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1475,25 +1475,25 @@
       <c r="A32" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
@@ -1545,29 +1545,29 @@
     <row r="41" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="E46" s="58"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="58"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="45"/>
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="E47" s="58"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="58"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="45"/>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="E48" s="58"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="58"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="45"/>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="7">
